--- a/HU_Facturación.xlsx
+++ b/HU_Facturación.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad de las Fuerzas Armadas-ESPE\9 Semestre\Arquitecturas de Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALCI\Documents\GitHub\UniversidadDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D9598C-503C-449B-A0A6-2301D18D0523}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -241,13 +242,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -256,12 +250,47 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5AFB1B38-A202-473B-A594-899941ABEAAB}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -535,7 +564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -555,12 +584,12 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -627,11 +656,11 @@
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -651,16 +680,16 @@
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1"/>
@@ -682,16 +711,16 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="1"/>
@@ -713,10 +742,10 @@
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -736,10 +765,10 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -759,10 +788,10 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -805,16 +834,16 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="1"/>
@@ -836,10 +865,10 @@
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -859,10 +888,10 @@
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -882,10 +911,10 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -928,16 +957,16 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="1"/>
@@ -959,10 +988,10 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -982,10 +1011,10 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1005,10 +1034,10 @@
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1051,16 +1080,16 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="1"/>
@@ -1082,10 +1111,10 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1105,10 +1134,10 @@
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1151,16 +1180,16 @@
     </row>
     <row r="25" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="1"/>
@@ -1182,10 +1211,10 @@
     </row>
     <row r="26" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1205,10 +1234,10 @@
     </row>
     <row r="27" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1251,16 +1280,16 @@
     </row>
     <row r="29" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="1"/>
@@ -1282,10 +1311,10 @@
     </row>
     <row r="30" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1305,10 +1334,10 @@
     </row>
     <row r="31" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1328,10 +1357,10 @@
     </row>
     <row r="32" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1351,7 +1380,7 @@
     </row>
     <row r="33" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1373,16 +1402,16 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G34" s="1"/>
@@ -1402,10 +1431,10 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1423,10 +1452,10 @@
       <c r="U35" s="1"/>
     </row>
     <row r="36" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1444,10 +1473,10 @@
       <c r="U36" s="1"/>
     </row>
     <row r="37" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -22896,6 +22925,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
@@ -22912,19 +22954,6 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
